--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2015.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2015.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>190.4669259845</v>
+        <v>1904669.259845</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3453.8854574683</v>
+        <v>34538854.574683</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>52.1448463218</v>
+        <v>521448.463218</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>129.6957950658</v>
+        <v>1296957.950658</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>662.5774632704</v>
+        <v>6625774.632704</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>7.3131686734</v>
+        <v>73131.686734</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>25.9626007438</v>
+        <v>259626.007438</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>2.186072564</v>
+        <v>21860.72564</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5437700184</v>
+        <v>395437.700184</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>45.0442369135</v>
+        <v>450442.369135</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>127.2637271388</v>
+        <v>1272637.271388</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>789.3406600703</v>
+        <v>7893406.600703</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>105.0577584345</v>
+        <v>1050577.584345</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>26.4697101112</v>
+        <v>264697.101112</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9178227088</v>
+        <v>5729178.227088</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>64.8483799995</v>
+        <v>648483.799995</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>267.4926938553</v>
+        <v>2674926.938553</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>15.38715165</v>
+        <v>153871.5165</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>3.5201810472</v>
+        <v>35201.810472</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>46.8848702909</v>
+        <v>468848.702909</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>9835.7896370719</v>
+        <v>98357896.370719</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>307.5545091631</v>
+        <v>3075545.091631</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>51.2007135779</v>
+        <v>512007.135779</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>721.8211048453</v>
+        <v>7218211.048453</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>663.78379737</v>
+        <v>6637837.9737</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>282.3201624189</v>
+        <v>2823201.624189</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>503.4368645675</v>
+        <v>5034368.645675</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>3.0321574091</v>
+        <v>30321.574091</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>51.8364337086</v>
+        <v>518364.337086</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>98.0965540184</v>
+        <v>980965.540184</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>57.236630633</v>
+        <v>572366.30633</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
